--- a/src/test/resources/excel/Test_data.xlsx
+++ b/src/test/resources/excel/Test_data.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTest_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="StoresTest_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,12 +24,283 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>testUser1</t>
+  </si>
+  <si>
+    <t>TestU$@Er1</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>testUser2</t>
+  </si>
+  <si>
+    <t>TestU$@Er2</t>
+  </si>
+  <si>
+    <t>testUser3</t>
+  </si>
+  <si>
+    <t>testUser4</t>
+  </si>
+  <si>
+    <t>testUser5</t>
+  </si>
+  <si>
+    <t>testUser6</t>
+  </si>
+  <si>
+    <t>testUser7</t>
+  </si>
+  <si>
+    <t>testUser8</t>
+  </si>
+  <si>
+    <t>testUser9</t>
+  </si>
+  <si>
+    <t>testUser10</t>
+  </si>
+  <si>
+    <t>testUser11</t>
+  </si>
+  <si>
+    <t>testUser12</t>
+  </si>
+  <si>
+    <t>testUser13</t>
+  </si>
+  <si>
+    <t>testUser14</t>
+  </si>
+  <si>
+    <t>testUser15</t>
+  </si>
+  <si>
+    <t>testUser16</t>
+  </si>
+  <si>
+    <t>TestU$@Er3</t>
+  </si>
+  <si>
+    <t>TestU$@Er4</t>
+  </si>
+  <si>
+    <t>TestU$@Er5</t>
+  </si>
+  <si>
+    <t>TestU$@Er6</t>
+  </si>
+  <si>
+    <t>TestU$@Er7</t>
+  </si>
+  <si>
+    <t>TestU$@Er8</t>
+  </si>
+  <si>
+    <t>TestU$@Er9</t>
+  </si>
+  <si>
+    <t>TestU$@Er10</t>
+  </si>
+  <si>
+    <t>TestU$@Er11</t>
+  </si>
+  <si>
+    <t>TestU$@Er12</t>
+  </si>
+  <si>
+    <t>TestU$@Er13</t>
+  </si>
+  <si>
+    <t>TestU$@Er14</t>
+  </si>
+  <si>
+    <t>TestU$@Er15</t>
+  </si>
+  <si>
+    <t>TestU$@Er16</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,13 +323,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,12 +611,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>